--- a/Docs/План работ Velvet v2.1.xlsx
+++ b/Docs/План работ Velvet v2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Velvet\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982355BD-10B2-457C-8E7F-BFEA8C7F762C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5245039E-4DE4-439B-B072-7B0D30E8D208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3E425FD-6B4B-4EB9-BBC1-CA7691F8BEF4}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{E3E425FD-6B4B-4EB9-BBC1-CA7691F8BEF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Исправление футпринта реле</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Ожидаемые результаты</t>
-  </si>
-  <si>
-    <t>Принципиальная схема в формате Altium .SchDoc</t>
   </si>
   <si>
     <t>Принципиальная схема в формате .PDF</t>
@@ -230,7 +227,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -276,7 +273,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C899FB5-CE16-4C2E-828F-7BD1947BE655}" name="Таблица1" displayName="Таблица1" ref="A1:D27" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C899FB5-CE16-4C2E-828F-7BD1947BE655}" name="Таблица1" displayName="Таблица1" ref="A1:D27" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D27" xr:uid="{4C899FB5-CE16-4C2E-828F-7BD1947BE655}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9BFB6CAF-54C3-48EE-94B7-CD3D3F84AC17}" name="Типы работ" dataDxfId="3"/>
@@ -587,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D3057C-3A03-4800-A4FE-7104D63ABE33}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,7 +600,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -612,18 +609,18 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -631,23 +628,20 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.3">
@@ -655,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
@@ -663,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -671,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -679,41 +673,41 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -723,95 +717,95 @@
     </row>
     <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/План работ Velvet v2.1.xlsx
+++ b/Docs/План работ Velvet v2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Velvet\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5245039E-4DE4-439B-B072-7B0D30E8D208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0CDE6-E076-4AF0-9B38-A0B3E8ED67AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{E3E425FD-6B4B-4EB9-BBC1-CA7691F8BEF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3E425FD-6B4B-4EB9-BBC1-CA7691F8BEF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Исправление футпринта реле</t>
   </si>
@@ -78,18 +78,12 @@
     <t>Опционально в случае использования средств моделирования необходимо предоставить: симуляционные модели, результаты моделирования в виде графиков (JPG, PDF) либо другой подтверждающей документации</t>
   </si>
   <si>
-    <t>Собрать 3 прототипа печатной платы</t>
-  </si>
-  <si>
     <t>Произвести тестирование печатной платы на работоспособность всех узлов</t>
   </si>
   <si>
     <t>Произвести необходимые исправления, если таковые имеются</t>
   </si>
   <si>
-    <t>Установка печатной платы в корпус</t>
-  </si>
-  <si>
     <t>Срок выполнения работ</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>Руководство пользователя</t>
   </si>
   <si>
-    <t xml:space="preserve">3 устройства Velvet Controller v2.1. Комплектация устройства: Velvet Controller v2.1; руководство пользователя; аксесуары для монтажа и эксплуатации устройство (метизы, антенны) </t>
-  </si>
-  <si>
     <t>Добавить в BOM антенны для GSM, Lora</t>
   </si>
   <si>
@@ -190,6 +181,21 @@
   </si>
   <si>
     <t>Типы работ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 устройства Velvet Controller v2.1. Комплектация устройства: Velvet Controller v2.1; руководство пользователя; аксесуары для монтажа и эксплуатации устройство (метизы, антенны) </t>
+  </si>
+  <si>
+    <t>Собрать 5 прототипов печатной платы</t>
+  </si>
+  <si>
+    <t>Сборка 5 прототипов устроства</t>
+  </si>
+  <si>
+    <t>3 Velvet v2.0 с работающей прошивкой</t>
+  </si>
+  <si>
+    <t>5 Velvet v5.0 с работающей прошивкой</t>
   </si>
 </sst>
 </file>
@@ -225,9 +231,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -273,8 +282,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C899FB5-CE16-4C2E-828F-7BD1947BE655}" name="Таблица1" displayName="Таблица1" ref="A1:D27" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D27" xr:uid="{4C899FB5-CE16-4C2E-828F-7BD1947BE655}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C899FB5-CE16-4C2E-828F-7BD1947BE655}" name="Таблица1" displayName="Таблица1" ref="A1:D30" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D30" xr:uid="{4C899FB5-CE16-4C2E-828F-7BD1947BE655}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9BFB6CAF-54C3-48EE-94B7-CD3D3F84AC17}" name="Типы работ" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{9F893019-FC0C-452E-B3CE-4CA5501DDD7A}" name="Задачи" dataDxfId="2"/>
@@ -582,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D3057C-3A03-4800-A4FE-7104D63ABE33}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +609,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -609,18 +618,18 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -641,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.3">
@@ -665,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -673,28 +682,28 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -702,12 +711,12 @@
     </row>
     <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -717,96 +726,112 @@
     </row>
     <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
